--- a/Extra 15/Diode/COMBINED DIODE DATA.xlsx
+++ b/Extra 15/Diode/COMBINED DIODE DATA.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalbe\OneDrive\Desktop\ECE220 Lab4\ece220\Extra 15\Diode\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFA7ECC-04D3-4CEB-A314-3D7953942943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="IV_DIODE_10580_-5V_5V" sheetId="1" r:id="rId1"/>
+    <sheet name="IV_DIODE_1000_-5V_5V" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +25,22 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+  <si>
+    <t>VK</t>
+  </si>
+  <si>
+    <t>10580um</t>
+  </si>
+  <si>
+    <t>1000um</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +88,3190 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12762577228596647"/>
+          <c:y val="2.829581420445822E-2"/>
+          <c:w val="0.77254713637406092"/>
+          <c:h val="0.8666108582199441"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'IV_DIODE_10580_-5V_5V'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10580um</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="60"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.9849955869373346E-3"/>
+                  <c:y val="0.10694075865189585"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-0D9A-4C97-B932-B110641ACF11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'IV_DIODE_10580_-5V_5V'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'IV_DIODE_10580_-5V_5V'!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-3.536E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.502E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.4869000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.4808999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.4919000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.4805000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.4579999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.4140000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.4140000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.4275E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.4474000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.4283999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.3964999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.3800000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.3589E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.3819999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.3045E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.3565000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.3176000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.3074999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.3185000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.2539999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.3114000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.2555000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.2740000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.2509000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.2149E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-3.2529E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-3.1848999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.2249999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-3.1860999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-3.1653999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3.1878999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-3.0954999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-3.1639E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-3.1080000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3.1059999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-3.0970000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.0300000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3.1006000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.0199999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.042E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-3.0094999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.9499999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-3.0003999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.9179E-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.9414999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.8894000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.8455000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.8538999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.7395000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.7429000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.0469999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.6394999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.2469999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.4505999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0715E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.3355000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.5665E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.776E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.9700999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.1540000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.3319999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.506E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.6805000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.8540000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.0271E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.2035000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.3801E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.5595000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.741E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.9233999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.1105999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.2979999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.4910999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.6848999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.8821000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.084E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.2855000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.4923999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.7015E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.9129999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.1262E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.3419000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.5624999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6.7844000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7.0086000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.2360000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.4656000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.6981000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.9322000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.1677E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.4051999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.6441E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.8877999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.1304999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.3755999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6253999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8738999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.0125E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.0378E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0D9A-4C97-B932-B110641ACF11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'IV_DIODE_1000_-5V_5V'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000um</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="56"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.6893203883494497E-3"/>
+                  <c:y val="-0.13788426708169904"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-0D9A-4C97-B932-B110641ACF11}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'IV_DIODE_1000_-5V_5V'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'IV_DIODE_1000_-5V_5V'!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-2.6444999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.5615000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.6024999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.588E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.5890000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.5425000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.5210000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.499E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.4454999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.461E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.4805000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4754999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.4294000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.3995E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.402E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.3884999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.334E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.3900000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.3209000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.3354999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.3110000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.2734999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.3059999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.2249999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.2668999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.2215E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.2169999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.2099E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.1474000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.2075000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.1404999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.1480000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.1265000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.0764999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.1180000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.0514999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.0655000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.0315000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.999E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.0100000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.9185E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.9585E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.8989999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.8709E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.8544999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.7623999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.7900000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.6889999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.6515E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.5690000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.4324999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.2985E-5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-8.5266999999999992E-6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.5924000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.1295000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0635E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.504E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.886E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.2215000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.5245999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.8045000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.0624999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.3110000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.5520000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.7869999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.0214999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.2491000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.4834999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.7124999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.9450999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.1796000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.4115000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.6504999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.888E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.1293999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.3756000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.6178999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.8709000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.1201000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.3740000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.6329999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.8865999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1490999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.4095999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.6737000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.9431000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.2080000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.4822000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.7539999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0028000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.0307000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.057E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.085E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.1125E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.1410000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.1695E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1975E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.2264999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.2545E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.2825E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.312E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0D9A-4C97-B932-B110641ACF11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1147497456"/>
+        <c:axId val="1138025856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1147497456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+          <c:min val="-0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Voltage Sweep (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.35193987115246955"/>
+              <c:y val="0.9103407528995614"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1138025856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1138025856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.0000000000000005E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2200">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Output Current (Amps)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0880319130452916E-2"/>
+              <c:y val="0.17129905131041823"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1147497456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.90188962478542789"/>
+          <c:y val="0.14223052034726277"/>
+          <c:w val="9.8110375214572138E-2"/>
+          <c:h val="9.3031046807393616E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'IV_DIODE_1000_-5V_5V'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000um</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'IV_DIODE_1000_-5V_5V'!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'IV_DIODE_1000_-5V_5V'!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-2.6444999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.5615000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.6024999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.588E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.5890000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.5425000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.5210000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.499E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.4454999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.461E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.4805000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.4754999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.4294000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.3995E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.402E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.3884999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.334E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.3900000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.3209000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.3354999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.3110000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.2734999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.3059999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.2249999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.2668999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.2215E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.2169999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.2099E-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.1474000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.2075000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.1404999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.1480000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.1265000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.0764999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.1180000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.0514999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.0655000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.0315000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.999E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.0100000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.9185E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.9585E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.8989999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.8709E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.8544999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.7623999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.7900000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.6889999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.6515E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.5690000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.4324999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.2985E-5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-8.5266999999999992E-6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.5924000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.1295000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0635E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.504E-4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.886E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.2215000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.5245999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.8045000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.0624999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.3110000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.5520000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.7869999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.0214999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.2491000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.4834999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.7124999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.9450999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.1796000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.4115000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.6504999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.888E-4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.1293999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.3756000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.6178999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.8709000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.1201000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.3740000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.6329999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.8865999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1490999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.4095999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.6737000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.9431000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.2080000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.4822000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.7539999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.0028000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.0307000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.057E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.085E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.1125E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.1410000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.1695E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1975E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.2264999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.2545E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.2825E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.312E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08D9-4562-99FF-EBC65CB105A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="42956416"/>
+        <c:axId val="121786880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="42956416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="121786880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="121786880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="42956416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>31751</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EEFE63B-4A54-70AF-DD6E-CFBB97D1042E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>244475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>549275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A62960D-C1BE-18A0-4907-AFBB6C33ECA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +3536,1665 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>-5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-3.536E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-3.502E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>-4.8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-3.4869000000000001E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>-4.7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-3.4808999999999998E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-3.4919000000000002E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-3.4805000000000003E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-3.4579999999999998E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>-4.3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-3.4140000000000002E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>-4.2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3.4140000000000002E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-3.4275E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>-4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-3.4474000000000002E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>-3.9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-3.4283999999999999E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>-3.8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-3.3964999999999998E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>-3.7</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-3.3800000000000002E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>-3.6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-3.3589E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>-3.5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-3.3819999999999998E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>-3.4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-3.3045E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>-3.3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-3.3565000000000001E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>-3.2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-3.3176000000000002E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>-3.1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>-3.3074999999999998E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>-3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>-3.3185000000000002E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>-2.9</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-3.2539999999999997E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>-2.8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-3.3114000000000002E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>-2.7</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-3.2555000000000003E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>-2.6</v>
+      </c>
+      <c r="B26" s="1">
+        <v>-3.2740000000000002E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-3.2509000000000003E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>-2.4</v>
+      </c>
+      <c r="B28" s="1">
+        <v>-3.2149E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-3.2529E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="B30" s="1">
+        <v>-3.1848999999999999E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>-2.1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>-3.2249999999999998E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B32" s="1">
+        <v>-3.1860999999999999E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>-1.9</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-3.1653999999999999E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>-1.8</v>
+      </c>
+      <c r="B34" s="1">
+        <v>-3.1878999999999998E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>-1.7</v>
+      </c>
+      <c r="B35" s="1">
+        <v>-3.0954999999999998E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>-1.6</v>
+      </c>
+      <c r="B36" s="1">
+        <v>-3.1639E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>-3.1080000000000001E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>-1.4</v>
+      </c>
+      <c r="B38" s="1">
+        <v>-3.1059999999999997E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>-1.3</v>
+      </c>
+      <c r="B39" s="1">
+        <v>-3.0970000000000003E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>-1.2</v>
+      </c>
+      <c r="B40" s="1">
+        <v>-3.0300000000000001E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="B41" s="1">
+        <v>-3.1006000000000001E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B42" s="1">
+        <v>-3.0199999999999999E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>-0.9</v>
+      </c>
+      <c r="B43" s="1">
+        <v>-3.042E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="B44" s="1">
+        <v>-3.0094999999999999E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>-0.7</v>
+      </c>
+      <c r="B45" s="1">
+        <v>-2.9499999999999999E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>-0.6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>-3.0003999999999999E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="B47" s="1">
+        <v>-2.9179E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>-0.4</v>
+      </c>
+      <c r="B48" s="1">
+        <v>-2.9414999999999999E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>-0.3</v>
+      </c>
+      <c r="B49" s="1">
+        <v>-2.8894000000000002E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="B50" s="1">
+        <v>-2.8455000000000001E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="B51" s="1">
+        <v>-2.8538999999999999E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1">
+        <v>-2.7395000000000001E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B53" s="1">
+        <v>-2.7429000000000001E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B54" s="1">
+        <v>-2.0469999999999999E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B55" s="1">
+        <v>5.6394999999999998E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B56" s="1">
+        <v>3.2469999999999998E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B57" s="1">
+        <v>7.4505999999999997E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1.0715E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1.3355000000000001E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B60" s="1">
+        <v>1.5665E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1.776E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1.9700999999999998E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2.1540000000000001E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2.3319999999999999E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2.506E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="B66" s="1">
+        <v>2.6805000000000002E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B67" s="1">
+        <v>2.8540000000000002E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="B68" s="1">
+        <v>3.0271E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="B69" s="1">
+        <v>3.2035000000000002E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="B70" s="1">
+        <v>3.3801E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="B71" s="1">
+        <v>3.5595000000000002E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>2</v>
+      </c>
+      <c r="B72" s="1">
+        <v>3.741E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="B73" s="1">
+        <v>3.9233999999999996E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B74" s="1">
+        <v>4.1105999999999998E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B75" s="1">
+        <v>4.2979999999999997E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="B76" s="1">
+        <v>4.4910999999999996E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B77" s="1">
+        <v>4.6848999999999997E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="B78" s="1">
+        <v>4.8821000000000003E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="B79" s="1">
+        <v>5.084E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>5.2855000000000003E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="B81" s="1">
+        <v>5.4923999999999997E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>3</v>
+      </c>
+      <c r="B82" s="1">
+        <v>5.7015E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="B83" s="1">
+        <v>5.9129999999999999E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="B84" s="1">
+        <v>6.1262E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="B85" s="1">
+        <v>6.3419000000000001E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="B86" s="1">
+        <v>6.5624999999999998E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>6.7844000000000003E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="B88" s="1">
+        <v>7.0086000000000002E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="B89" s="1">
+        <v>7.2360000000000002E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>7.4656000000000002E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B91" s="1">
+        <v>7.6981000000000003E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>4</v>
+      </c>
+      <c r="B92" s="1">
+        <v>7.9322000000000004E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B93" s="1">
+        <v>8.1677E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="B94" s="1">
+        <v>8.4051999999999998E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="B95" s="1">
+        <v>8.6441E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B96" s="1">
+        <v>8.8877999999999995E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>9.1304999999999997E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B98" s="1">
+        <v>9.3755999999999996E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="B99" s="1">
+        <v>9.6253999999999992E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>9.8738999999999997E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1.0125E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1.0378E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B556BB-2CBB-48CA-BAF6-30D616F8EE7E}">
+  <dimension ref="A1:B102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>-5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-2.6444999999999998E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-2.5615000000000001E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>-4.8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-2.6024999999999999E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>-4.7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-2.588E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-2.5890000000000001E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-2.5425000000000001E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-2.5210000000000001E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>-4.3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-2.499E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>-4.2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-2.4454999999999999E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-2.461E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>-4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-2.4805000000000001E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>-3.9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-2.4754999999999999E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>-3.8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-2.4294000000000002E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>-3.7</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-2.3995E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>-3.6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-2.402E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>-3.5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-2.3884999999999999E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>-3.4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-2.334E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>-3.3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-2.3900000000000002E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>-3.2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-2.3209000000000001E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>-3.1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>-2.3354999999999999E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>-3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>-2.3110000000000001E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>-2.9</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-2.2734999999999998E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>-2.8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-2.3059999999999999E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>-2.7</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-2.2249999999999999E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>-2.6</v>
+      </c>
+      <c r="B26" s="1">
+        <v>-2.2668999999999999E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>-2.5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-2.2215E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>-2.4</v>
+      </c>
+      <c r="B28" s="1">
+        <v>-2.2169999999999999E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-2.2099E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="B30" s="1">
+        <v>-2.1474000000000001E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>-2.1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>-2.2075000000000001E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B32" s="1">
+        <v>-2.1404999999999999E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>-1.9</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-2.1480000000000001E-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>-1.8</v>
+      </c>
+      <c r="B34" s="1">
+        <v>-2.1265000000000001E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>-1.7</v>
+      </c>
+      <c r="B35" s="1">
+        <v>-2.0764999999999999E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>-1.6</v>
+      </c>
+      <c r="B36" s="1">
+        <v>-2.1180000000000001E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>-1.5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>-2.0514999999999999E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>-1.4</v>
+      </c>
+      <c r="B38" s="1">
+        <v>-2.0655000000000001E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>-1.3</v>
+      </c>
+      <c r="B39" s="1">
+        <v>-2.0315000000000001E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>-1.2</v>
+      </c>
+      <c r="B40" s="1">
+        <v>-1.999E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="B41" s="1">
+        <v>-2.0100000000000001E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B42" s="1">
+        <v>-1.9185E-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>-0.9</v>
+      </c>
+      <c r="B43" s="1">
+        <v>-1.9585E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>-0.8</v>
+      </c>
+      <c r="B44" s="1">
+        <v>-1.8989999999999999E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>-0.7</v>
+      </c>
+      <c r="B45" s="1">
+        <v>-1.8709E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>-0.6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>-1.8544999999999999E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>-0.5</v>
+      </c>
+      <c r="B47" s="1">
+        <v>-1.7623999999999999E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>-0.4</v>
+      </c>
+      <c r="B48" s="1">
+        <v>-1.7900000000000001E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>-0.3</v>
+      </c>
+      <c r="B49" s="1">
+        <v>-1.6889999999999999E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>-0.2</v>
+      </c>
+      <c r="B50" s="1">
+        <v>-1.6515E-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="B51" s="1">
+        <v>-1.5690000000000001E-5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1">
+        <v>-1.4324999999999999E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B53" s="1">
+        <v>-1.2985E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B54" s="1">
+        <v>-8.5266999999999992E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B55" s="1">
+        <v>7.5924000000000004E-6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B56" s="1">
+        <v>5.1295000000000003E-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1.0635E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B58" s="1">
+        <v>1.504E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1.886E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2.2215000000000001E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2.5245999999999998E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2.8045000000000001E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B63" s="1">
+        <v>3.0624999999999999E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3.3110000000000002E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="B65" s="1">
+        <v>3.5520000000000001E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="B66" s="1">
+        <v>3.7869999999999999E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B67" s="1">
+        <v>4.0214999999999999E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="B68" s="1">
+        <v>4.2491000000000002E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="B69" s="1">
+        <v>4.4834999999999997E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="B70" s="1">
+        <v>4.7124999999999999E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="B71" s="1">
+        <v>4.9450999999999998E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>2</v>
+      </c>
+      <c r="B72" s="1">
+        <v>5.1796000000000003E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="B73" s="1">
+        <v>5.4115000000000001E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B74" s="1">
+        <v>5.6504999999999999E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B75" s="1">
+        <v>5.888E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="B76" s="1">
+        <v>6.1293999999999997E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B77" s="1">
+        <v>6.3756000000000001E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="B78" s="1">
+        <v>6.6178999999999999E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="B79" s="1">
+        <v>6.8709000000000001E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="B80" s="1">
+        <v>7.1201000000000001E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="B81" s="1">
+        <v>7.3740000000000003E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>3</v>
+      </c>
+      <c r="B82" s="1">
+        <v>7.6329999999999996E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="B83" s="1">
+        <v>7.8865999999999995E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="B84" s="1">
+        <v>8.1490999999999996E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="B85" s="1">
+        <v>8.4095999999999997E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="B86" s="1">
+        <v>8.6737000000000001E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>8.9431000000000005E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="B88" s="1">
+        <v>9.2080000000000005E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="B89" s="1">
+        <v>9.4822000000000005E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="B90" s="1">
+        <v>9.7539999999999996E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1.0028000000000001E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>4</v>
+      </c>
+      <c r="B92" s="1">
+        <v>1.0307000000000001E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B93" s="1">
+        <v>1.057E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1.085E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="B95" s="1">
+        <v>1.1125E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1.1410000000000001E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1.1695E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1.1975E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1.2264999999999999E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>1.2545E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1.2825E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="1">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1.312E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>